--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H2">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I2">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J2">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.454003</v>
+        <v>10.992357</v>
       </c>
       <c r="N2">
-        <v>32.908006</v>
+        <v>21.984714</v>
       </c>
       <c r="O2">
-        <v>0.4882514020867614</v>
+        <v>0.5644097598846161</v>
       </c>
       <c r="P2">
-        <v>0.3953759714466226</v>
+        <v>0.4951614428613312</v>
       </c>
       <c r="Q2">
-        <v>1080.246810399569</v>
+        <v>1184.594952101917</v>
       </c>
       <c r="R2">
-        <v>4320.987241598276</v>
+        <v>4738.37980840767</v>
       </c>
       <c r="S2">
-        <v>0.03817877913372181</v>
+        <v>0.06077851007739202</v>
       </c>
       <c r="T2">
-        <v>0.02183051618075363</v>
+        <v>0.03819836992166575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H3">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I3">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J3">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.187478</v>
       </c>
       <c r="O3">
-        <v>0.00185438960477524</v>
+        <v>0.003208726844286688</v>
       </c>
       <c r="P3">
-        <v>0.002252470003040291</v>
+        <v>0.004222564686752653</v>
       </c>
       <c r="Q3">
-        <v>4.102801235664667</v>
+        <v>6.734542689681667</v>
       </c>
       <c r="R3">
-        <v>24.616807413988</v>
+        <v>40.40725613809</v>
       </c>
       <c r="S3">
-        <v>0.0001450038460637187</v>
+        <v>0.0003455320065353682</v>
       </c>
       <c r="T3">
-        <v>0.0001243691736453229</v>
+        <v>0.0003257424224929217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H4">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I4">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J4">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.443152333333333</v>
+        <v>2.430548</v>
       </c>
       <c r="N4">
-        <v>7.329457</v>
+        <v>7.291644</v>
       </c>
       <c r="O4">
-        <v>0.07249740699947257</v>
+        <v>0.1247980767971813</v>
       </c>
       <c r="P4">
-        <v>0.08806036991579641</v>
+        <v>0.1642296080754641</v>
       </c>
       <c r="Q4">
-        <v>160.3991147566703</v>
+        <v>261.92880122447</v>
       </c>
       <c r="R4">
-        <v>962.394688540022</v>
+        <v>1571.57280734682</v>
       </c>
       <c r="S4">
-        <v>0.00566892891197178</v>
+        <v>0.01343889086859033</v>
       </c>
       <c r="T4">
-        <v>0.004862215888578541</v>
+        <v>0.01266920801649248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H5">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I5">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J5">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.4133865</v>
+        <v>3.036095</v>
       </c>
       <c r="N5">
-        <v>2.826773</v>
+        <v>6.07219</v>
       </c>
       <c r="O5">
-        <v>0.0419404287403801</v>
+        <v>0.1558902835794801</v>
       </c>
       <c r="P5">
-        <v>0.0339624990020387</v>
+        <v>0.1367638606409957</v>
       </c>
       <c r="Q5">
-        <v>92.79238969913949</v>
+        <v>327.1857719961125</v>
       </c>
       <c r="R5">
-        <v>371.169558796558</v>
+        <v>1308.74308798445</v>
       </c>
       <c r="S5">
-        <v>0.003279528453597832</v>
+        <v>0.01678705763954169</v>
       </c>
       <c r="T5">
-        <v>0.001875224944222311</v>
+        <v>0.01055041061051054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H6">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I6">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J6">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.745335666666668</v>
+        <v>0.8696673333333332</v>
       </c>
       <c r="N6">
-        <v>26.236007</v>
+        <v>2.609002</v>
       </c>
       <c r="O6">
-        <v>0.2595066015831748</v>
+        <v>0.04465363804925195</v>
       </c>
       <c r="P6">
-        <v>0.3152146852807001</v>
+        <v>0.05876251993763024</v>
       </c>
       <c r="Q6">
-        <v>574.1533509985537</v>
+        <v>93.71998499271832</v>
       </c>
       <c r="R6">
-        <v>3444.920105991322</v>
+        <v>562.31990995631</v>
       </c>
       <c r="S6">
-        <v>0.02029209784803895</v>
+        <v>0.004808530580200283</v>
       </c>
       <c r="T6">
-        <v>0.01740444484335713</v>
+        <v>0.004533132590324613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H7">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I7">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J7">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.581487999999999</v>
+        <v>2.084685</v>
       </c>
       <c r="N7">
-        <v>13.744464</v>
+        <v>6.254055</v>
       </c>
       <c r="O7">
-        <v>0.1359497709854357</v>
+        <v>0.1070395148451839</v>
       </c>
       <c r="P7">
-        <v>0.1651340043518021</v>
+        <v>0.1408600037978262</v>
       </c>
       <c r="Q7">
-        <v>300.786246294224</v>
+        <v>224.6567617593375</v>
       </c>
       <c r="R7">
-        <v>1804.717477765344</v>
+        <v>1347.940570556025</v>
       </c>
       <c r="S7">
-        <v>0.01063058141266881</v>
+        <v>0.01152655870626181</v>
       </c>
       <c r="T7">
-        <v>0.009117803848333618</v>
+        <v>0.01086640046354223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>830.932037</v>
       </c>
       <c r="I8">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J8">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.454003</v>
+        <v>10.992357</v>
       </c>
       <c r="N8">
-        <v>32.908006</v>
+        <v>21.984714</v>
       </c>
       <c r="O8">
-        <v>0.4882514020867614</v>
+        <v>0.5644097598846161</v>
       </c>
       <c r="P8">
-        <v>0.3953759714466226</v>
+        <v>0.4951614428613312</v>
       </c>
       <c r="Q8">
-        <v>4557.38607653137</v>
+        <v>3044.633864480403</v>
       </c>
       <c r="R8">
-        <v>27344.31645918822</v>
+        <v>18267.80318688242</v>
       </c>
       <c r="S8">
-        <v>0.1610700765491097</v>
+        <v>0.1562123067348428</v>
       </c>
       <c r="T8">
-        <v>0.1381491102697993</v>
+        <v>0.1472655911943906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>830.932037</v>
       </c>
       <c r="I9">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J9">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.187478</v>
       </c>
       <c r="O9">
-        <v>0.00185438960477524</v>
+        <v>0.003208726844286688</v>
       </c>
       <c r="P9">
-        <v>0.002252470003040291</v>
+        <v>0.004222564686752653</v>
       </c>
       <c r="Q9">
         <v>17.30905293696511</v>
@@ -1013,10 +1013,10 @@
         <v>155.781476432686</v>
       </c>
       <c r="S9">
-        <v>0.0006117477068503024</v>
+        <v>0.0008880828391955995</v>
       </c>
       <c r="T9">
-        <v>0.0007870400563060989</v>
+        <v>0.001255829778178692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>830.932037</v>
       </c>
       <c r="I10">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J10">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.443152333333333</v>
+        <v>2.430548</v>
       </c>
       <c r="N10">
-        <v>7.329457</v>
+        <v>7.291644</v>
       </c>
       <c r="O10">
-        <v>0.07249740699947257</v>
+        <v>0.1247980767971813</v>
       </c>
       <c r="P10">
-        <v>0.08806036991579641</v>
+        <v>0.1642296080754641</v>
       </c>
       <c r="Q10">
-        <v>676.6978483459899</v>
+        <v>673.2067335554253</v>
       </c>
       <c r="R10">
-        <v>6090.280635113909</v>
+        <v>6058.860601998828</v>
       </c>
       <c r="S10">
-        <v>0.02391629157665378</v>
+        <v>0.03454050025028835</v>
       </c>
       <c r="T10">
-        <v>0.03076935027028841</v>
+        <v>0.04884340385046771</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>830.932037</v>
       </c>
       <c r="I11">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J11">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.4133865</v>
+        <v>3.036095</v>
       </c>
       <c r="N11">
-        <v>2.826773</v>
+        <v>6.07219</v>
       </c>
       <c r="O11">
-        <v>0.0419404287403801</v>
+        <v>0.1558902835794801</v>
       </c>
       <c r="P11">
-        <v>0.0339624990020387</v>
+        <v>0.1367638606409957</v>
       </c>
       <c r="Q11">
-        <v>391.4760411711002</v>
+        <v>840.9295342918384</v>
       </c>
       <c r="R11">
-        <v>2348.856247026601</v>
+        <v>5045.57720575103</v>
       </c>
       <c r="S11">
-        <v>0.01383579860466041</v>
+        <v>0.04314592433780332</v>
       </c>
       <c r="T11">
-        <v>0.01186690481594939</v>
+        <v>0.04067483662487795</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>830.932037</v>
       </c>
       <c r="I12">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J12">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.745335666666668</v>
+        <v>0.8696673333333332</v>
       </c>
       <c r="N12">
-        <v>26.236007</v>
+        <v>2.609002</v>
       </c>
       <c r="O12">
-        <v>0.2595066015831748</v>
+        <v>0.04465363804925195</v>
       </c>
       <c r="P12">
-        <v>0.3152146852807001</v>
+        <v>0.05876251993763024</v>
       </c>
       <c r="Q12">
-        <v>2422.259859917363</v>
+        <v>240.8781495996749</v>
       </c>
       <c r="R12">
-        <v>21800.33873925626</v>
+        <v>2167.903346397074</v>
       </c>
       <c r="S12">
-        <v>0.08560906943299204</v>
+        <v>0.01235883625613137</v>
       </c>
       <c r="T12">
-        <v>0.1101397946773872</v>
+        <v>0.01747651672691069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>830.932037</v>
       </c>
       <c r="I13">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J13">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.581487999999999</v>
+        <v>2.084685</v>
       </c>
       <c r="N13">
-        <v>13.744464</v>
+        <v>6.254055</v>
       </c>
       <c r="O13">
-        <v>0.1359497709854357</v>
+        <v>0.1070395148451839</v>
       </c>
       <c r="P13">
-        <v>0.1651340043518021</v>
+        <v>0.1408600037978262</v>
       </c>
       <c r="Q13">
-        <v>1268.968385443685</v>
+        <v>577.4105178511149</v>
       </c>
       <c r="R13">
-        <v>11420.71546899317</v>
+        <v>5196.694660660035</v>
       </c>
       <c r="S13">
-        <v>0.04484869869470835</v>
+        <v>0.02962544363010826</v>
       </c>
       <c r="T13">
-        <v>0.05769980328602368</v>
+        <v>0.04189306747120908</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H14">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I14">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J14">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.454003</v>
+        <v>10.992357</v>
       </c>
       <c r="N14">
-        <v>32.908006</v>
+        <v>21.984714</v>
       </c>
       <c r="O14">
-        <v>0.4882514020867614</v>
+        <v>0.5644097598846161</v>
       </c>
       <c r="P14">
-        <v>0.3953759714466226</v>
+        <v>0.4951614428613312</v>
       </c>
       <c r="Q14">
-        <v>3607.157613149585</v>
+        <v>2317.486444352823</v>
       </c>
       <c r="R14">
-        <v>21642.94567889751</v>
+        <v>13904.91866611694</v>
       </c>
       <c r="S14">
-        <v>0.1274864896495473</v>
+        <v>0.1189042490535609</v>
       </c>
       <c r="T14">
-        <v>0.1093446125676551</v>
+        <v>0.1120942702812802</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H15">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I15">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J15">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.187478</v>
       </c>
       <c r="O15">
-        <v>0.00185438960477524</v>
+        <v>0.003208726844286688</v>
       </c>
       <c r="P15">
-        <v>0.002252470003040291</v>
+        <v>0.004222564686752653</v>
       </c>
       <c r="Q15">
-        <v>13.70006425382845</v>
+        <v>13.17514595563622</v>
       </c>
       <c r="R15">
-        <v>123.300578284456</v>
+        <v>118.576313600726</v>
       </c>
       <c r="S15">
-        <v>0.0004841965023449072</v>
+        <v>0.0006759827397667759</v>
       </c>
       <c r="T15">
-        <v>0.0006229398789753119</v>
+        <v>0.0009559009775516682</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H16">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I16">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J16">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.443152333333333</v>
+        <v>2.430548</v>
       </c>
       <c r="N16">
-        <v>7.329457</v>
+        <v>7.291644</v>
       </c>
       <c r="O16">
-        <v>0.07249740699947257</v>
+        <v>0.1247980767971813</v>
       </c>
       <c r="P16">
-        <v>0.08806036991579641</v>
+        <v>0.1642296080754641</v>
       </c>
       <c r="Q16">
-        <v>535.6043474203516</v>
+        <v>512.4253190056387</v>
       </c>
       <c r="R16">
-        <v>4820.439126783163</v>
+        <v>4611.827871050748</v>
       </c>
       <c r="S16">
-        <v>0.01892967411369546</v>
+        <v>0.0262912207753655</v>
       </c>
       <c r="T16">
-        <v>0.02435384981989755</v>
+        <v>0.03717817358601411</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H17">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I17">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J17">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.4133865</v>
+        <v>3.036095</v>
       </c>
       <c r="N17">
-        <v>2.826773</v>
+        <v>6.07219</v>
       </c>
       <c r="O17">
-        <v>0.0419404287403801</v>
+        <v>0.1558902835794801</v>
       </c>
       <c r="P17">
-        <v>0.0339624990020387</v>
+        <v>0.1367638606409957</v>
       </c>
       <c r="Q17">
-        <v>309.8521298311326</v>
+        <v>640.0910201758717</v>
       </c>
       <c r="R17">
-        <v>1859.112778986796</v>
+        <v>3840.54612105523</v>
       </c>
       <c r="S17">
-        <v>0.01095099371277979</v>
+        <v>0.03284141845377393</v>
       </c>
       <c r="T17">
-        <v>0.00939262009681498</v>
+        <v>0.03096049860185976</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H18">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I18">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J18">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.745335666666668</v>
+        <v>0.8696673333333332</v>
       </c>
       <c r="N18">
-        <v>26.236007</v>
+        <v>2.609002</v>
       </c>
       <c r="O18">
-        <v>0.2595066015831748</v>
+        <v>0.04465363804925195</v>
       </c>
       <c r="P18">
-        <v>0.3152146852807001</v>
+        <v>0.05876251993763024</v>
       </c>
       <c r="Q18">
-        <v>1917.211521692641</v>
+        <v>183.3494177906038</v>
       </c>
       <c r="R18">
-        <v>17254.90369523376</v>
+        <v>1650.144760115434</v>
       </c>
       <c r="S18">
-        <v>0.06775932549363926</v>
+        <v>0.00940718548318735</v>
       </c>
       <c r="T18">
-        <v>0.08717532203978832</v>
+        <v>0.01330261450535133</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H19">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I19">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J19">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.581487999999999</v>
+        <v>2.084685</v>
       </c>
       <c r="N19">
-        <v>13.744464</v>
+        <v>6.254055</v>
       </c>
       <c r="O19">
-        <v>0.1359497709854357</v>
+        <v>0.1070395148451839</v>
       </c>
       <c r="P19">
-        <v>0.1651340043518021</v>
+        <v>0.1408600037978262</v>
       </c>
       <c r="Q19">
-        <v>1004.384727458325</v>
+        <v>439.508035287215</v>
       </c>
       <c r="R19">
-        <v>9039.462547124927</v>
+        <v>3955.572317584935</v>
       </c>
       <c r="S19">
-        <v>0.03549761249536208</v>
+        <v>0.02255002311499005</v>
       </c>
       <c r="T19">
-        <v>0.04566922380620942</v>
+        <v>0.03188778036976017</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H20">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I20">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J20">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.454003</v>
+        <v>10.992357</v>
       </c>
       <c r="N20">
-        <v>32.908006</v>
+        <v>21.984714</v>
       </c>
       <c r="O20">
-        <v>0.4882514020867614</v>
+        <v>0.5644097598846161</v>
       </c>
       <c r="P20">
-        <v>0.3953759714466226</v>
+        <v>0.4951614428613312</v>
       </c>
       <c r="Q20">
-        <v>1235.093540422224</v>
+        <v>1105.49178013941</v>
       </c>
       <c r="R20">
-        <v>4940.374161688896</v>
+        <v>4421.967120557641</v>
       </c>
       <c r="S20">
-        <v>0.0436514720851847</v>
+        <v>0.05671993045425068</v>
       </c>
       <c r="T20">
-        <v>0.02495978628157995</v>
+        <v>0.03564761430748765</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H21">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I21">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J21">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.187478</v>
       </c>
       <c r="O21">
-        <v>0.00185438960477524</v>
+        <v>0.003208726844286688</v>
       </c>
       <c r="P21">
-        <v>0.002252470003040291</v>
+        <v>0.004222564686752653</v>
       </c>
       <c r="Q21">
-        <v>4.690912535008001</v>
+        <v>6.284833118046667</v>
       </c>
       <c r="R21">
-        <v>28.14547521004801</v>
+        <v>37.70899870828</v>
       </c>
       <c r="S21">
-        <v>0.000165789254719885</v>
+        <v>0.0003224585689160208</v>
       </c>
       <c r="T21">
-        <v>0.0001421967290421074</v>
+        <v>0.0003039904651540689</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H22">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I22">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J22">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.443152333333333</v>
+        <v>2.430548</v>
       </c>
       <c r="N22">
-        <v>7.329457</v>
+        <v>7.291644</v>
       </c>
       <c r="O22">
-        <v>0.07249740699947257</v>
+        <v>0.1247980767971813</v>
       </c>
       <c r="P22">
-        <v>0.08806036991579641</v>
+        <v>0.1642296080754641</v>
       </c>
       <c r="Q22">
-        <v>183.391340403152</v>
+        <v>244.43809778324</v>
       </c>
       <c r="R22">
-        <v>1100.348042418912</v>
+        <v>1466.62858669944</v>
       </c>
       <c r="S22">
-        <v>0.006481534972271117</v>
+        <v>0.01254148801078041</v>
       </c>
       <c r="T22">
-        <v>0.005559184603285599</v>
+        <v>0.0118232019292817</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H23">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I23">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J23">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.4133865</v>
+        <v>3.036095</v>
       </c>
       <c r="N23">
-        <v>2.826773</v>
+        <v>6.07219</v>
       </c>
       <c r="O23">
-        <v>0.0419404287403801</v>
+        <v>0.1558902835794801</v>
       </c>
       <c r="P23">
-        <v>0.0339624990020387</v>
+        <v>0.1367638606409957</v>
       </c>
       <c r="Q23">
-        <v>106.093607511192</v>
+        <v>305.33743274735</v>
       </c>
       <c r="R23">
-        <v>424.374430044768</v>
+        <v>1221.3497309894</v>
       </c>
       <c r="S23">
-        <v>0.003749628667888714</v>
+        <v>0.01566607573357545</v>
       </c>
       <c r="T23">
-        <v>0.002144026895659998</v>
+        <v>0.009845890518374879</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H24">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I24">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J24">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.745335666666668</v>
+        <v>0.8696673333333332</v>
       </c>
       <c r="N24">
-        <v>26.236007</v>
+        <v>2.609002</v>
       </c>
       <c r="O24">
-        <v>0.2595066015831748</v>
+        <v>0.04465363804925195</v>
       </c>
       <c r="P24">
-        <v>0.3152146852807001</v>
+        <v>0.05876251993763024</v>
       </c>
       <c r="Q24">
-        <v>656.4546992439522</v>
+        <v>87.46168710275333</v>
       </c>
       <c r="R24">
-        <v>3938.728195463713</v>
+        <v>524.77012261652</v>
       </c>
       <c r="S24">
-        <v>0.02320084515172813</v>
+        <v>0.00448743346536146</v>
       </c>
       <c r="T24">
-        <v>0.01989926486588204</v>
+        <v>0.004230425604966427</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H25">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I25">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J25">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.581487999999999</v>
+        <v>2.084685</v>
       </c>
       <c r="N25">
-        <v>13.744464</v>
+        <v>6.254055</v>
       </c>
       <c r="O25">
-        <v>0.1359497709854357</v>
+        <v>0.1070395148451839</v>
       </c>
       <c r="P25">
-        <v>0.1651340043518021</v>
+        <v>0.1408600037978262</v>
       </c>
       <c r="Q25">
-        <v>343.902102991104</v>
+        <v>209.65495677405</v>
       </c>
       <c r="R25">
-        <v>2063.412617946624</v>
+        <v>1257.9297406443</v>
       </c>
       <c r="S25">
-        <v>0.0121544098138677</v>
+        <v>0.01075685480548163</v>
       </c>
       <c r="T25">
-        <v>0.01042478489869211</v>
+        <v>0.01014077965707512</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H26">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I26">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J26">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.454003</v>
+        <v>10.992357</v>
       </c>
       <c r="N26">
-        <v>32.908006</v>
+        <v>21.984714</v>
       </c>
       <c r="O26">
-        <v>0.4882514020867614</v>
+        <v>0.5644097598846161</v>
       </c>
       <c r="P26">
-        <v>0.3953759714466226</v>
+        <v>0.4951614428613312</v>
       </c>
       <c r="Q26">
-        <v>1093.642639493983</v>
+        <v>1127.404146109755</v>
       </c>
       <c r="R26">
-        <v>6561.855836963898</v>
+        <v>6764.424876658531</v>
       </c>
       <c r="S26">
-        <v>0.03865222316094327</v>
+        <v>0.05784419740607671</v>
       </c>
       <c r="T26">
-        <v>0.03315184517222208</v>
+        <v>0.05453129850153413</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H27">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I27">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J27">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.187478</v>
       </c>
       <c r="O27">
-        <v>0.00185438960477524</v>
+        <v>0.003208726844286688</v>
       </c>
       <c r="P27">
-        <v>0.002252470003040291</v>
+        <v>0.004222564686752653</v>
       </c>
       <c r="Q27">
-        <v>4.153678890319334</v>
+        <v>6.409407145478889</v>
       </c>
       <c r="R27">
-        <v>37.383110012874</v>
+        <v>57.68466430931001</v>
       </c>
       <c r="S27">
-        <v>0.0001468019969318372</v>
+        <v>0.0003288501407931726</v>
       </c>
       <c r="T27">
-        <v>0.0001888671598393975</v>
+        <v>0.000465023960760673</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H28">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I28">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J28">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.443152333333333</v>
+        <v>2.430548</v>
       </c>
       <c r="N28">
-        <v>7.329457</v>
+        <v>7.291644</v>
       </c>
       <c r="O28">
-        <v>0.07249740699947257</v>
+        <v>0.1247980767971813</v>
       </c>
       <c r="P28">
-        <v>0.08806036991579641</v>
+        <v>0.1642296080754641</v>
       </c>
       <c r="Q28">
-        <v>162.3881779110257</v>
+        <v>249.2831967264867</v>
       </c>
       <c r="R28">
-        <v>1461.493601199231</v>
+        <v>2243.54877053838</v>
       </c>
       <c r="S28">
-        <v>0.005739227664184774</v>
+        <v>0.01279007753450374</v>
       </c>
       <c r="T28">
-        <v>0.007383766237931868</v>
+        <v>0.01808633105397324</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H29">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I29">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J29">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.4133865</v>
+        <v>3.036095</v>
       </c>
       <c r="N29">
-        <v>2.826773</v>
+        <v>6.07219</v>
       </c>
       <c r="O29">
-        <v>0.0419404287403801</v>
+        <v>0.1558902835794801</v>
       </c>
       <c r="P29">
-        <v>0.0339624990020387</v>
+        <v>0.1367638606409957</v>
       </c>
       <c r="Q29">
-        <v>93.9430813574765</v>
+        <v>311.3896401820917</v>
       </c>
       <c r="R29">
-        <v>563.6584881448589</v>
+        <v>1868.33784109255</v>
       </c>
       <c r="S29">
-        <v>0.003320196939958291</v>
+        <v>0.01597659887898496</v>
       </c>
       <c r="T29">
-        <v>0.002847718601759636</v>
+        <v>0.0150615743942828</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H30">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I30">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J30">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.745335666666668</v>
+        <v>0.8696673333333332</v>
       </c>
       <c r="N30">
-        <v>26.236007</v>
+        <v>2.609002</v>
       </c>
       <c r="O30">
-        <v>0.2595066015831748</v>
+        <v>0.04465363804925195</v>
       </c>
       <c r="P30">
-        <v>0.3152146852807001</v>
+        <v>0.05876251993763024</v>
       </c>
       <c r="Q30">
-        <v>581.2732610875424</v>
+        <v>89.19529790892111</v>
       </c>
       <c r="R30">
-        <v>5231.459349787881</v>
+        <v>802.75768118029</v>
       </c>
       <c r="S30">
-        <v>0.02054373430011874</v>
+        <v>0.004576380562144192</v>
       </c>
       <c r="T30">
-        <v>0.02643040851522073</v>
+        <v>0.006471417679261124</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H31">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I31">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J31">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.581487999999999</v>
+        <v>2.084685</v>
       </c>
       <c r="N31">
-        <v>13.744464</v>
+        <v>6.254055</v>
       </c>
       <c r="O31">
-        <v>0.1359497709854357</v>
+        <v>0.1070395148451839</v>
       </c>
       <c r="P31">
-        <v>0.1651340043518021</v>
+        <v>0.1408600037978262</v>
       </c>
       <c r="Q31">
-        <v>304.516209771568</v>
+        <v>213.810606072275</v>
       </c>
       <c r="R31">
-        <v>2740.645887944112</v>
+        <v>1924.295454650475</v>
       </c>
       <c r="S31">
-        <v>0.01076240818633518</v>
+        <v>0.0109700704470831</v>
       </c>
       <c r="T31">
-        <v>0.01384630665568677</v>
+        <v>0.01551267576417014</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H32">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I32">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J32">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>16.454003</v>
+        <v>10.992357</v>
       </c>
       <c r="N32">
-        <v>32.908006</v>
+        <v>21.984714</v>
       </c>
       <c r="O32">
-        <v>0.4882514020867614</v>
+        <v>0.5644097598846161</v>
       </c>
       <c r="P32">
-        <v>0.3953759714466226</v>
+        <v>0.4951614428613312</v>
       </c>
       <c r="Q32">
-        <v>2241.268652509897</v>
+        <v>2220.937388702412</v>
       </c>
       <c r="R32">
-        <v>13447.61191505938</v>
+        <v>13325.62433221447</v>
       </c>
       <c r="S32">
-        <v>0.0792123615082546</v>
+        <v>0.1139505661584929</v>
       </c>
       <c r="T32">
-        <v>0.06794010097461248</v>
+        <v>0.1074242986549728</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H33">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I33">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J33">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.187478</v>
       </c>
       <c r="O33">
-        <v>0.00185438960477524</v>
+        <v>0.003208726844286688</v>
       </c>
       <c r="P33">
-        <v>0.002252470003040291</v>
+        <v>0.004222564686752653</v>
       </c>
       <c r="Q33">
-        <v>8.512387825123778</v>
+        <v>12.62625476226044</v>
       </c>
       <c r="R33">
-        <v>76.611490426114</v>
+        <v>113.636292860344</v>
       </c>
       <c r="S33">
-        <v>0.0003008502978645897</v>
+        <v>0.0006478205490797509</v>
       </c>
       <c r="T33">
-        <v>0.0003870570052320519</v>
+        <v>0.0009160770826146294</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H34">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I34">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J34">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.443152333333333</v>
+        <v>2.430548</v>
       </c>
       <c r="N34">
-        <v>7.329457</v>
+        <v>7.291644</v>
       </c>
       <c r="O34">
-        <v>0.07249740699947257</v>
+        <v>0.1247980767971813</v>
       </c>
       <c r="P34">
-        <v>0.08806036991579641</v>
+        <v>0.1642296080754641</v>
       </c>
       <c r="Q34">
-        <v>332.7920104309213</v>
+        <v>491.0771118729013</v>
       </c>
       <c r="R34">
-        <v>2995.128093878291</v>
+        <v>4419.694006856112</v>
       </c>
       <c r="S34">
-        <v>0.01176174976069566</v>
+        <v>0.02519589935765301</v>
       </c>
       <c r="T34">
-        <v>0.01513200309581444</v>
+        <v>0.03562928963923482</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H35">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I35">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J35">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.4133865</v>
+        <v>3.036095</v>
       </c>
       <c r="N35">
-        <v>2.826773</v>
+        <v>6.07219</v>
       </c>
       <c r="O35">
-        <v>0.0419404287403801</v>
+        <v>0.1558902835794801</v>
       </c>
       <c r="P35">
-        <v>0.0339624990020387</v>
+        <v>0.1367638606409957</v>
       </c>
       <c r="Q35">
-        <v>192.5232939565332</v>
+        <v>613.4241183353533</v>
       </c>
       <c r="R35">
-        <v>1155.139763739199</v>
+        <v>3680.54471001212</v>
       </c>
       <c r="S35">
-        <v>0.006804282361495053</v>
+        <v>0.03147320853580078</v>
       </c>
       <c r="T35">
-        <v>0.005836003647632378</v>
+        <v>0.02967064989108976</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H36">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I36">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J36">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.745335666666668</v>
+        <v>0.8696673333333332</v>
       </c>
       <c r="N36">
-        <v>26.236007</v>
+        <v>2.609002</v>
       </c>
       <c r="O36">
-        <v>0.2595066015831748</v>
+        <v>0.04465363804925195</v>
       </c>
       <c r="P36">
-        <v>0.3152146852807001</v>
+        <v>0.05876251993763024</v>
       </c>
       <c r="Q36">
-        <v>1191.238793707327</v>
+        <v>175.7108776882995</v>
       </c>
       <c r="R36">
-        <v>10721.14914336594</v>
+        <v>1581.397899194696</v>
       </c>
       <c r="S36">
-        <v>0.04210152935665763</v>
+        <v>0.009015271702227292</v>
       </c>
       <c r="T36">
-        <v>0.05416545033906459</v>
+        <v>0.01274841283081606</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H37">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I37">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J37">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.581487999999999</v>
+        <v>2.084685</v>
       </c>
       <c r="N37">
-        <v>13.744464</v>
+        <v>6.254055</v>
       </c>
       <c r="O37">
-        <v>0.1359497709854357</v>
+        <v>0.1070395148451839</v>
       </c>
       <c r="P37">
-        <v>0.1651340043518021</v>
+        <v>0.1408600037978262</v>
       </c>
       <c r="Q37">
-        <v>624.0636662245813</v>
+        <v>421.19764306846</v>
       </c>
       <c r="R37">
-        <v>5616.572996021231</v>
+        <v>3790.77878761614</v>
       </c>
       <c r="S37">
-        <v>0.02205606038249357</v>
+        <v>0.02161056414125904</v>
       </c>
       <c r="T37">
-        <v>0.02837608185685653</v>
+        <v>0.03055930007206945</v>
       </c>
     </row>
   </sheetData>
